--- a/Output/Young_2001 Young 2001 OS DTIC parameters.xlsx
+++ b/Output/Young_2001 Young 2001 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.95308165608033</v>
+        <v>-1.91600227134157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235764186065949</v>
+        <v>0.257928758189887</v>
       </c>
       <c r="D2" t="n">
         <v>178.02715514316</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.127807148941032</v>
+        <v>-0.139560850406393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128157101154197</v>
+        <v>0.105925170492656</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.05257362849532</v>
+        <v>1.02869503297525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288080901041177</v>
+        <v>0.265769224642769</v>
       </c>
       <c r="D2" t="n">
         <v>178.447821031609</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.717436925236619</v>
+        <v>-0.717688599529452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.124537607141585</v>
+        <v>0.103533830249769</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.50596150897498</v>
+        <v>-1.46716693033476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.249752256684582</v>
+        <v>0.287705749115125</v>
       </c>
       <c r="D2" t="n">
         <v>177.621651750142</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.26653750603206</v>
+        <v>1.26059972867232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216449955109887</v>
+        <v>0.170502953872554</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.8334625702322</v>
+        <v>-1.77351822022407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.270318049401206</v>
+        <v>0.320554106187069</v>
       </c>
       <c r="D2" t="n">
         <v>177.269783521258</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0444484446995318</v>
+        <v>-0.0531899742245637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0368542173565487</v>
+        <v>0.0449845807907303</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0555847514313396</v>
+        <v>0.0665272443013772</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.014699123668472</v>
+        <v>-0.0112609082153799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.014699123668472</v>
+        <v>-0.0112609082153799</v>
       </c>
       <c r="B3" t="n">
-        <v>0.016424242576247</v>
+        <v>0.0112201417438982</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0829906055446962</v>
+        <v>0.0706332807672187</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0278016389585685</v>
+        <v>-0.0171998828454053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0278016389585685</v>
+        <v>-0.0171998828454053</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0155096155925518</v>
+        <v>0.010719254006188</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0623761897190414</v>
+        <v>0.0827745980738954</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.007029593649587</v>
+        <v>0.0044798074636298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.007029593649587</v>
+        <v>0.0044798074636298</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0468505830670721</v>
+        <v>0.0290712572792663</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0730718478320728</v>
+        <v>0.10275493499339</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00680553207578169</v>
+        <v>-0.0106890316796556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00680553207578169</v>
+        <v>-0.0106890316796556</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00135823333696374</v>
+        <v>0.00202361250891774</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Young_2001 Young 2001 OS DTIC parameters.xlsx
+++ b/Output/Young_2001 Young 2001 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.91600227134157</v>
+        <v>-1.95308165608033</v>
       </c>
       <c r="C2" t="n">
-        <v>0.257928758189887</v>
+        <v>0.235764186065949</v>
       </c>
       <c r="D2" t="n">
         <v>178.02715514316</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.139560850406393</v>
+        <v>-0.127807148941032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105925170492656</v>
+        <v>0.128157101154197</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.02869503297525</v>
+        <v>1.05257362849532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.265769224642769</v>
+        <v>0.288080901041177</v>
       </c>
       <c r="D2" t="n">
         <v>178.447821031609</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.717688599529452</v>
+        <v>-0.717436925236619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103533830249769</v>
+        <v>0.124537607141585</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.46716693033476</v>
+        <v>-1.50596150897498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.287705749115125</v>
+        <v>0.249752256684582</v>
       </c>
       <c r="D2" t="n">
         <v>177.621651750142</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.26059972867232</v>
+        <v>0.222267720042517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.170502953872554</v>
+        <v>0.166463011139801</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.77351822022407</v>
+        <v>-1.8334625702322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320554106187069</v>
+        <v>0.270318049401206</v>
       </c>
       <c r="D2" t="n">
         <v>177.269783521258</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0531899742245637</v>
+        <v>-0.0444484446995318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0449845807907303</v>
+        <v>0.0368542173565487</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0665272443013772</v>
+        <v>0.0555847514313396</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0112609082153799</v>
+        <v>-0.014699123668472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0112609082153799</v>
+        <v>-0.014699123668472</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0112201417438982</v>
+        <v>0.016424242576247</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0706332807672187</v>
+        <v>0.0829906055446962</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0171998828454053</v>
+        <v>-0.0278016389585685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0171998828454053</v>
+        <v>-0.0278016389585685</v>
       </c>
       <c r="B3" t="n">
-        <v>0.010719254006188</v>
+        <v>0.0155096155925518</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0827745980738954</v>
+        <v>0.0623761897190414</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0044798074636298</v>
+        <v>-0.00515070683471067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0044798074636298</v>
+        <v>-0.00515070683471067</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0290712572792663</v>
+        <v>0.0277099340777296</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.10275493499339</v>
+        <v>0.0730718478320728</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0106890316796556</v>
+        <v>-0.00680553207578169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0106890316796556</v>
+        <v>-0.00680553207578169</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00202361250891774</v>
+        <v>0.00135823333696374</v>
       </c>
     </row>
   </sheetData>
